--- a/TP Mi Impacto Ambiental - Java/src/test/java/domain/importadorExcel/fechas.xlsx
+++ b/TP Mi Impacto Ambiental - Java/src/test/java/domain/importadorExcel/fechas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Escritorio\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\Facu\Facu 2022- 3°Nivel\DDS\Repos\2022-ma-ma-mama-grupo-06\TP Mi Impacto Ambiental - Java\src\test\java\domain\importadorExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B325132-A72D-4B84-8A67-74926FEF85BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E259C95-5DAF-4F27-A49D-06BAFFD129C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11970" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{54A78C1D-DD11-4A2F-9974-D5CA5ED878F8}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{54A78C1D-DD11-4A2F-9974-D5CA5ED878F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -89,8 +89,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="169" formatCode="mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -129,13 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,13 +452,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE87285-E20F-4E41-A2AB-B9C862664A38}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -505,11 +505,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="3">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -522,11 +522,11 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" s="3">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -539,12 +539,12 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1">
-        <v>43922</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="3">
+        <v>43852</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -557,11 +557,11 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -574,12 +574,12 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1">
-        <v>43922</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="3">
+        <v>43852</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -592,11 +592,11 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="5">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -606,14 +606,14 @@
       <c r="C9">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="4">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -626,11 +626,12 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1">
-        <v>41334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="3">
+        <v>41296</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -643,11 +644,12 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="1">
-        <v>41334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="3">
+        <v>41296</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -660,11 +662,11 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="1">
-        <v>41334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="3">
+        <v>41296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -677,12 +679,12 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="1">
-        <v>41334</v>
+      <c r="E13" s="3">
+        <v>41296</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>